--- a/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>GDEV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -717,26 +717,26 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>125400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -905,25 +905,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -943,8 +943,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>231400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -972,23 +972,23 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-116200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1014,23 +1014,23 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1043,11 +1043,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-3200</v>
+      <c r="D21" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1101,8 +1101,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-103400</v>
       </c>
       <c r="E23" s="3">
         <v>-3200</v>
@@ -1131,25 +1131,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1188,8 +1188,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-103700</v>
       </c>
       <c r="E26" s="3">
         <v>-3200</v>
@@ -1217,8 +1217,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-103700</v>
       </c>
       <c r="E27" s="3">
         <v>-3200</v>
@@ -1362,23 +1362,23 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1391,8 +1391,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-103700</v>
       </c>
       <c r="E33" s="3">
         <v>-3200</v>
@@ -1449,8 +1449,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-103700</v>
       </c>
       <c r="E35" s="3">
         <v>-3200</v>
@@ -1538,8 +1538,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>105500</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1553,8 +1553,8 @@
       <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1597,25 +1597,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>47700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1654,8 +1654,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -1683,8 +1683,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>156300</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
@@ -1698,8 +1698,8 @@
       <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1771,25 +1771,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1858,25 +1858,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+        <v>113200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -1915,8 +1915,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>273700</v>
       </c>
       <c r="E54" s="3">
         <v>250500</v>
@@ -1930,8 +1930,8 @@
       <c r="H54" s="3">
         <v>251400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1970,8 +1970,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>30300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -1985,8 +1985,8 @@
       <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2000,25 +2000,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2028,8 +2028,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>282700</v>
       </c>
       <c r="E59" s="3">
         <v>2500</v>
@@ -2043,8 +2043,8 @@
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2057,8 +2057,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>313900</v>
       </c>
       <c r="E60" s="3">
         <v>2700</v>
@@ -2072,8 +2072,8 @@
       <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2087,7 +2087,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2115,8 +2115,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>137900</v>
       </c>
       <c r="E62" s="3">
         <v>16900</v>
@@ -2231,8 +2231,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>452300</v>
       </c>
       <c r="E66" s="3">
         <v>19500</v>
@@ -2246,8 +2246,8 @@
       <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2389,8 +2389,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-178600</v>
       </c>
       <c r="E72" s="3">
         <v>-6300</v>
@@ -2404,8 +2404,8 @@
       <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2505,8 +2505,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>-178600</v>
       </c>
       <c r="E76" s="3">
         <v>230900</v>
@@ -2520,8 +2520,8 @@
       <c r="H76" s="3">
         <v>242300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2597,8 +2597,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-103700</v>
       </c>
       <c r="E81" s="3">
         <v>-3200</v>
@@ -2813,23 +2813,23 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>62600</v>
       </c>
       <c r="E89" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2942,26 +2942,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-250000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3109,14 +3109,14 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>251300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3158,23 +3158,23 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>21600</v>
       </c>
       <c r="E102" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>GDEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E8" s="3">
         <v>115200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>109600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>86700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>74400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>64500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>33700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>28400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>22000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>79600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>75900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>58300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>47500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>41900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>41300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,17 +886,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>125400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,40 +915,46 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E17" s="3">
         <v>231400</v>
       </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
       <c r="F17" s="3">
-        <v>2200</v>
+        <v>129900</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>96400</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>69200</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>76200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>53500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-116200</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1041,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>12800</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>800</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-101700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>19200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-102800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1135,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-103400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-19600</v>
       </c>
       <c r="G23" s="3">
-        <v>-2800</v>
+        <v>-11600</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>6600</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-10900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-103700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-20000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2800</v>
+        <v>-11800</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>6300</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-11200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-103700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-20000</v>
       </c>
       <c r="G27" s="3">
-        <v>-2800</v>
+        <v>-11800</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>6300</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-11200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12800</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-800</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-103700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-20000</v>
       </c>
       <c r="G33" s="3">
-        <v>-2800</v>
+        <v>-11800</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>6300</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-11200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-103700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-20000</v>
       </c>
       <c r="G35" s="3">
-        <v>-2800</v>
+        <v>-11800</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>6300</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-11200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,28 +1618,29 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E41" s="3">
         <v>105500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+        <v>40900</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1562,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,19 +1680,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47700</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>45200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>63500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1617,11 +1709,14 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,25 +1744,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
+        <v>4800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1678,28 +1776,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E46" s="3">
         <v>156300</v>
       </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
       <c r="F46" s="3">
-        <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
+        <v>109100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1707,48 +1808,54 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>250100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>250100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>250100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>250000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>2900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1762,22 +1869,25 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>1600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1791,11 +1901,14 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +1968,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E52" s="3">
         <v>113200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>105200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1872,17 +1991,20 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,28 +2032,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E54" s="3">
         <v>273700</v>
       </c>
-      <c r="E54" s="3">
-        <v>250500</v>
-      </c>
       <c r="F54" s="3">
-        <v>250800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>251200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>251400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
+        <v>218900</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,28 +2094,29 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30300</v>
+        <v>26600</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>19400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+        <v>20900</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1994,19 +2124,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>1300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2014,37 +2147,40 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>282700</v>
+        <v>295400</v>
       </c>
       <c r="E59" s="3">
-        <v>2500</v>
+        <v>293700</v>
       </c>
       <c r="F59" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+        <v>275900</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2052,28 +2188,31 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>322800</v>
+      </c>
+      <c r="E60" s="3">
         <v>313900</v>
       </c>
-      <c r="E60" s="3">
-        <v>2700</v>
-      </c>
       <c r="F60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
+        <v>298100</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2081,19 +2220,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2110,25 +2252,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E62" s="3">
         <v>137900</v>
       </c>
-      <c r="E62" s="3">
-        <v>16900</v>
-      </c>
       <c r="F62" s="3">
-        <v>14200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>16200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8800</v>
+        <v>105600</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,28 +2380,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>474100</v>
+      </c>
+      <c r="E66" s="3">
         <v>452300</v>
       </c>
-      <c r="E66" s="3">
-        <v>19500</v>
-      </c>
       <c r="F66" s="3">
-        <v>16700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
+        <v>404200</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2255,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,28 +2554,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-178600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-6300</v>
-      </c>
       <c r="F72" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
+        <v>-185400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,28 +2682,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-178600</v>
       </c>
-      <c r="E76" s="3">
-        <v>230900</v>
-      </c>
       <c r="F76" s="3">
-        <v>234100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>234300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>242300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
+        <v>-185400</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-103700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-20000</v>
       </c>
       <c r="G81" s="3">
-        <v>-2800</v>
+        <v>-11800</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>6300</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-11200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>10400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62600</v>
+        <v>43700</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>51000</v>
       </c>
       <c r="F89" s="3">
-        <v>-500</v>
+        <v>-7700</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>18500</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>41500</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>32400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>40000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,28 +3069,29 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3337,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-50700</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H100" s="3">
-        <v>251300</v>
+        <v>-34000</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-9700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21600</v>
+        <v>37300</v>
       </c>
       <c r="E102" s="3">
-        <v>-300</v>
+        <v>64600</v>
       </c>
       <c r="F102" s="3">
-        <v>-500</v>
+        <v>-59000</v>
       </c>
       <c r="G102" s="3">
-        <v>-200</v>
+        <v>15400</v>
       </c>
       <c r="H102" s="3">
-        <v>900</v>
+        <v>8600</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>23400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>35400</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>GDEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,193 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>125800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="G8" s="3">
         <v>122600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>115200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>109600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>86700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>74400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>64500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>63300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>36700</v>
+      </c>
+      <c r="G9" s="3">
         <v>38500</v>
       </c>
-      <c r="E9" s="3">
-        <v>35600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>33700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>28400</v>
-      </c>
       <c r="H9" s="3">
+        <v>32500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K9" s="3">
         <v>26900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>22600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>22000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>87100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>89400</v>
+      </c>
+      <c r="G10" s="3">
         <v>84100</v>
       </c>
-      <c r="E10" s="3">
-        <v>79600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>75900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>58300</v>
-      </c>
       <c r="H10" s="3">
+        <v>82700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>78500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K10" s="3">
         <v>47500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>41900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>41300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +864,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +899,17 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,26 +940,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>125400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -918,43 +978,61 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="3">
-        <v>600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
-      </c>
       <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1042,93 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100200</v>
+      </c>
+      <c r="G17" s="3">
         <v>99600</v>
       </c>
-      <c r="E17" s="3">
-        <v>231400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>129900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>96400</v>
-      </c>
       <c r="H17" s="3">
+        <v>226600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>125200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K17" s="3">
         <v>69200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>76200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>53500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G18" s="3">
         <v>23000</v>
       </c>
-      <c r="E18" s="3">
-        <v>-116200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-9700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-111400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>9800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,72 +1141,93 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>12800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
+        <v>800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>700</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>34500</v>
+      </c>
+      <c r="G21" s="3">
         <v>19200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-102800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-11100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K21" s="3">
         <v>6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-10800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>10800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1120,8 +1240,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1138,72 +1258,99 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="G23" s="3">
         <v>18300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-103400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-11600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K23" s="3">
         <v>6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>10600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>800</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1381,99 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>32200</v>
+      </c>
+      <c r="G26" s="3">
         <v>18100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-103700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-11800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-98800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G27" s="3">
         <v>18000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-103700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-11800</v>
-      </c>
       <c r="H27" s="3">
+        <v>-98800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K27" s="3">
         <v>6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>10400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,31 +1504,40 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-11500</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-8800</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-4900</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-4900</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1362,8 +1545,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1586,17 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1627,99 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-12800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G33" s="3">
         <v>18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-103700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-20000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>6300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>10400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1750,104 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G35" s="3">
         <v>18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-103700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-20000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>6300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>10400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1860,11 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,29 +1877,32 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>91400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>83700</v>
+      </c>
+      <c r="G41" s="3">
         <v>142800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>105500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>40900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1912,17 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,40 +1953,58 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45200</v>
+        <v>34000</v>
       </c>
       <c r="E43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>46500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>42800</v>
+      </c>
+      <c r="H43" s="3">
         <v>44900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>63500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,29 +2035,38 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,29 +2076,38 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>158500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>139300</v>
+      </c>
+      <c r="G46" s="3">
         <v>191100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>156300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>109100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,104 +2117,140 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>43300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>36500</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+        <v>36800</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>65900</v>
+      </c>
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2281,17 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,40 +2322,58 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>111600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>125700</v>
+      </c>
+      <c r="G52" s="3">
         <v>116700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>113200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>105200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,29 +2404,38 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>373300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>371700</v>
+      </c>
+      <c r="G54" s="3">
         <v>313000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>273700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>218900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2445,17 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2468,11 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,29 +2485,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26600</v>
+        <v>8300</v>
       </c>
       <c r="E57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>22100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H57" s="3">
         <v>19400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>20900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,61 +2520,79 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>295400</v>
+        <v>302800</v>
       </c>
       <c r="E59" s="3">
+        <v>316300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>319200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>305800</v>
+      </c>
+      <c r="H59" s="3">
         <v>293700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>275900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,29 +2602,38 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>311800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>326800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>342900</v>
+      </c>
+      <c r="G60" s="3">
         <v>322800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>313900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>298100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,29 +2643,38 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>900</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2255,29 +2684,38 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>151200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>166900</v>
+      </c>
+      <c r="G62" s="3">
         <v>150100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>137900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>105600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2725,17 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2766,17 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2807,17 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,29 +2848,38 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>456600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>478200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>510700</v>
+      </c>
+      <c r="G66" s="3">
         <v>474100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>452300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>404200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2889,17 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2912,11 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2947,17 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2988,17 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +3029,17 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,29 +3070,38 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-161100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-178600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-185400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +3111,17 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +3152,17 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3193,17 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,29 +3234,38 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-161100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-178600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-185400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +3275,17 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3316,104 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G81" s="3">
         <v>18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-103700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-20000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>6300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>10400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3426,52 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3502,17 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3543,17 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3584,17 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3625,17 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3666,58 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G89" s="3">
         <v>43700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>51000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>18500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>41500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>32400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>40000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3730,52 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3806,17 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3847,58 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3911,11 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3946,17 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3987,17 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +4028,17 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,100 +4069,136 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>14100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-50700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-34000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-9700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="G102" s="3">
         <v>37300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>64600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-59000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>15400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>23400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>35400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>GDEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,205 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E8" s="3">
         <v>124800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>126100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>109600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>86700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E9" s="3">
         <v>41800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>38500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E10" s="3">
         <v>83000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>89400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>84100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,29 +965,32 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>125400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -987,28 +1006,31 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1017,7 +1039,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1025,14 +1047,17 @@
       <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200900</v>
+      </c>
+      <c r="E17" s="3">
         <v>77200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>226600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>125200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>93800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-97800</v>
+      </c>
+      <c r="E18" s="3">
         <v>47600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-111400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,95 +1176,102 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="E21" s="3">
         <v>38600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-97900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1240,11 +1279,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1267,63 +1306,69 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="E23" s="3">
         <v>36800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-98600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1332,25 +1377,28 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="E26" s="3">
         <v>34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>40900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-98800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="E27" s="3">
         <v>34200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-98800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,35 +1570,38 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-11500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-8800</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-4900</v>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I29" s="3">
         <v>-4900</v>
       </c>
       <c r="J29" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2600</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>10800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E33" s="3">
         <v>31200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-103700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E35" s="3">
         <v>31200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-103700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1965,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E41" s="3">
         <v>131500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>83700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,31 +2007,34 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>50400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1962,32 +2051,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E43" s="3">
         <v>34000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>63500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,11 +2092,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,32 +2139,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
         <v>9800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2183,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E46" s="3">
         <v>175300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>158500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>191100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>156300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>109100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,23 +2227,26 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E47" s="3">
         <v>43300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2152,8 +2256,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2161,38 +2265,41 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,34 +2312,37 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E49" s="3">
         <v>63500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>65900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1600</v>
       </c>
       <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>1600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2246,11 +2356,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2447,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E52" s="3">
         <v>98400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>111600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>125700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>116700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>113200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>105200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,11 +2488,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2535,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E54" s="3">
         <v>383000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>373300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>371700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>313000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>273700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>218900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2617,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,23 +2671,23 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,35 +2700,38 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>309400</v>
+      </c>
+      <c r="E59" s="3">
         <v>302800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>316300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>319200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>305800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>293700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>275900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2747,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>332400</v>
+      </c>
+      <c r="E60" s="3">
         <v>311800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>326800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>342900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>322800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>313900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>298100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,32 +2791,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,32 +2835,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E62" s="3">
         <v>144100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>151200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>166900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>150100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>137900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>105600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3011,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>470800</v>
+      </c>
+      <c r="E66" s="3">
         <v>456600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>478200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>510700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>474100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>452300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>404200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-172500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-104900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-139000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-161100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-178600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-185400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3425,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-148800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-73600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-104900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-139000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-161100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-178600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-185400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E81" s="3">
         <v>31200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-103700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,34 +3626,35 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
       </c>
       <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -3465,13 +3663,16 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E89" s="3">
         <v>59800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4087,118 +4332,127 @@
         <v>-300</v>
       </c>
       <c r="E100" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
       </c>
       <c r="G100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H100" s="3">
         <v>-5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-50700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>400</v>
       </c>
       <c r="M101" s="3">
         <v>400</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E102" s="3">
         <v>32400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-59100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>64600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GDEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>GDEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E8" s="3">
         <v>103100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>124800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>126100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>115200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>109600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>86700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>64500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E9" s="3">
         <v>56500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>38700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E10" s="3">
         <v>46600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>83000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>89400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>84100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,32 +985,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>63400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>125400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1009,31 +1029,34 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E15" s="3">
         <v>3400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1042,7 +1065,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1050,14 +1073,17 @@
       <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E17" s="3">
         <v>200900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>226600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>125200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-97800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>47600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-111400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,116 +1210,123 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-99200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>38600</v>
       </c>
-      <c r="F21" s="3">
-        <v>44300</v>
-      </c>
       <c r="G21" s="3">
-        <v>34500</v>
+        <v>45700</v>
       </c>
       <c r="H21" s="3">
+        <v>32000</v>
+      </c>
+      <c r="I21" s="3">
         <v>19200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-97900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1309,69 +1349,75 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-98600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1380,25 +1426,28 @@
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-98800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-98800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,38 +1631,41 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>23400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-11500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-8800</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-4900</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3">
         <v>-4900</v>
       </c>
       <c r="K29" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2600</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-77000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-103700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-77000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-103700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1989,12 +2076,12 @@
       <c r="I41" s="3">
         <v>105500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>40900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2036,8 +2126,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2077,12 +2170,12 @@
       <c r="I43" s="3">
         <v>44900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>63500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,11 +2188,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2165,12 +2264,12 @@
       <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2285,11 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2209,12 +2311,12 @@
       <c r="I46" s="3">
         <v>156300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>109100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2259,8 +2364,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2268,14 +2373,17 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2297,12 +2405,12 @@
       <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2315,11 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2341,12 +2452,12 @@
       <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2359,11 +2470,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2473,12 +2593,12 @@
       <c r="I52" s="3">
         <v>113200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>105200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,11 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2561,12 +2687,12 @@
       <c r="I54" s="3">
         <v>273700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>218900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2641,12 +2772,12 @@
       <c r="I57" s="3">
         <v>19400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>20900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2685,12 +2819,12 @@
       <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,11 +2837,14 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2729,12 +2866,12 @@
       <c r="I59" s="3">
         <v>293700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>275900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +2887,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2773,12 +2913,12 @@
       <c r="I60" s="3">
         <v>313900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>298100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2818,11 +2961,11 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2838,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2861,12 +3007,12 @@
       <c r="I62" s="3">
         <v>137900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>105600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,8 +3169,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3037,12 +3195,12 @@
       <c r="I66" s="3">
         <v>452300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>404200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3275,12 +3449,12 @@
       <c r="I72" s="3">
         <v>-178600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-185400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,8 +3611,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3451,12 +3637,12 @@
       <c r="I76" s="3">
         <v>-178600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>-185400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-77000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-103700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,37 +3825,38 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
-        <v>2200</v>
-      </c>
       <c r="G83" s="3">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="H83" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
       </c>
       <c r="K83" s="3">
+        <v>600</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3666,13 +3865,16 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>16800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>59800</v>
       </c>
-      <c r="F89" s="3">
-        <v>21100</v>
-      </c>
       <c r="G89" s="3">
-        <v>18400</v>
+        <v>39500</v>
       </c>
       <c r="H89" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="I89" s="3">
         <v>43700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,25 +4201,28 @@
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-6300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-77100</v>
+        <v>-83300</v>
       </c>
       <c r="H94" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-300</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
         <v>-300</v>
       </c>
       <c r="F100" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="G100" s="3">
-        <v>-700</v>
+        <v>-1400</v>
       </c>
       <c r="H100" s="3">
+        <v>42300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-50700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
-        <v>1200</v>
-      </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>400</v>
       </c>
       <c r="N101" s="3">
         <v>400</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-117300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="L102" s="3">
         <v>15400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-59100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>37300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>64600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-59000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>15400</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
